--- a/thruster_tests/ThrusterTest_Data.xlsx
+++ b/thruster_tests/ThrusterTest_Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\MATLAB\AirTableSim\thruster_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2F5F7-774B-4A70-97D0-5770A458078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241F019-61E1-45E2-B08E-3423F1500956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{A31859EC-B53F-416B-85DB-CF69B37BA662}"/>
+    <workbookView xWindow="5325" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A31859EC-B53F-416B-85DB-CF69B37BA662}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Dec21_2021" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_Jan18_2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Pressure Setting</t>
   </si>
@@ -136,6 +137,24 @@
   </si>
   <si>
     <t>-Z</t>
+  </si>
+  <si>
+    <t>Test 13</t>
+  </si>
+  <si>
+    <t>Test 14</t>
+  </si>
+  <si>
+    <t>Test 15</t>
+  </si>
+  <si>
+    <t>Test 16</t>
+  </si>
+  <si>
+    <t>Test 17</t>
+  </si>
+  <si>
+    <t>Test 18</t>
   </si>
 </sst>
 </file>
@@ -502,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB8397-3BEB-4E22-865B-457C04D60347}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,4 +940,333 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D5BC7-B66A-4DBD-A853-424A9AD89B1C}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>